--- a/Documentacao/Sprint 2/Backlog/Backlog.xlsx
+++ b/Documentacao/Sprint 2/Backlog/Backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsmou\OneDrive\Documentos\HFSystem\Documentacao\Sprint 2\Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBFD8F-4EE9-42C3-B280-6AABE540F5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,303 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+  <si>
+    <t>BACKLOG</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO </t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG</t>
+  </si>
+  <si>
+    <t>PESQUISA DO TEMA DO PROJETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESQUISA E APROFUNDAMENTO NO TEMA DO PROJETO </t>
+  </si>
+  <si>
+    <t>ESSENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENVOLVIMENTO DA DOCUMENTAÇÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIAÇÃO DE DOCUMENTAÇÃO PARA ORGANIZAÇÃO E DEFINIÇÃO DE TÓPICOS DO PROJETO </t>
+  </si>
+  <si>
+    <t>CONTEXTO</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DO CONTEXTO DO PROJETO/ POR QUÊ DO DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DO QUE O PROJETO PLANEJA ATINGIR</t>
+  </si>
+  <si>
+    <t>JUSTIFICATIVA</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DOS BENEFÍCIOS QUE O PROJETO TRARÁ</t>
+  </si>
+  <si>
+    <t>ESCOPO</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DO QUE SERÁ FEITO NO PROJETO, DEFINIÇÃO DOS LIMITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMISSAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETALHAMENTO DO QUE TERÁ DE TER NO PROJETO </t>
+  </si>
+  <si>
+    <t>RESTRIÇÕES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETALHAMENTO DAS LIMITAÇÕES QUE COMPROMETEM O ANDAMENTO DO PROJETO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAGRAMA DE VISÃO DE NEGÓCIO </t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DIAGRAMA DE VISÃO DE NEGÓCIO, COM OBJETIVO DE COMPREENDER O FUNCIONAMENTO DO PROJETO DE FORMA VISUAL</t>
+  </si>
+  <si>
+    <t>INSERÇÃO DE DADOS NO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>FERRAMENTA DE GESTÃO DO PROJETO</t>
+  </si>
+  <si>
+    <t>MANIPULAÇÃO DE DADOS DO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DO AMBIENTE DE HOSPEDAGEM DO PROJETO</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t>PROTÓTIPO DE SITE INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE PROTÓTIPO DO SITE INSTITUCIONAL PARA APRESENTAR AO CLIENTE</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DE SIMULADOR FINANCEIRO</t>
+  </si>
+  <si>
+    <t>SIMULADOR FINANCEIRO PARA JUSTIFICAR CONTRATAÇÃO DO PROJETO</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>CRIAR E DESENVOLVER O BANCO DE DADOS E TABELAS PARA RECEPÇÃO DE DADOS DO SISTEMA E DO SENSOR</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DA IDE ARDUINO</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DO AMBIENTE DE DESENVOLVIMENTO PARA UTILIZAÇÃO DOS SENSORES</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DO CÓDIGO PARA SENSORES</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DO CÓDIGO PARA OS SENSORES CORRETA CAPTAÇÃO DE DADOS</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DE AMBIENTE DE VIRTUALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO E CRIAÇÃO DO VIRTUAL BOX PARA HOSPEDAGEM DE MÁQUINA VIRTUAL</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO DE MÁQUINA VIRTUAL</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO E CONFIGURAÇÃO DE MÁQUINA VIRTUAL PARA HOSPEDAGEM E TESTES DO SOFTWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENVOLVIMENTO DE APRESENTAÇÃO </t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE ROTEIRO E POWERPOINT PARA APRESENTAÇÃO AO CLIENTE</t>
+  </si>
+  <si>
+    <t>DEFINIÇÃO DE NOME DA EMPRESA</t>
+  </si>
+  <si>
+    <t>DEFINIÇÃO DO TÍTULO DO PROJETO</t>
+  </si>
+  <si>
+    <t>DEFINIÇÃO DE LOGO DA EMPRESA</t>
+  </si>
+  <si>
+    <t>DEFINIÇÃO DE LOGO PARA IDENTIDADE VISUAL</t>
+  </si>
+  <si>
+    <t>TELA DE LOGIN</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE TELA DE LOGIN E CADASTRO PARA ACESSO AO SISTEMA</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DASHBOARDS</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DASHBOARDS COM AS INFORMAÇÕES DOS SENSORES</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DO SOFTWARE DE MONITORAMENTO DE ÁGUA EM RESERVATÓRIOS PARA IRRIGAÇÃO AGRÍCOLA</t>
+  </si>
+  <si>
+    <t>PROJETO ATUALIZADO NO GITHUB</t>
+  </si>
+  <si>
+    <t>PLANILHA DE RISCO</t>
+  </si>
+  <si>
+    <t>ESPECIFICAÇÃO DE DASHBOARD</t>
+  </si>
+  <si>
+    <t>SITE ESTÁTICO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>SITE ESTÁTICO DASHBOARD</t>
+  </si>
+  <si>
+    <t>SITE ESTÁTICO CADASTRO/LOGIN</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE SOLUÇÃO</t>
+  </si>
+  <si>
+    <t>TRELLO ESTRUTURADO</t>
+  </si>
+  <si>
+    <t>BACKLOG SPRINT</t>
+  </si>
+  <si>
+    <t>SCRIPT DE CRIAÇÃO DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>SIMULAR INTEGRAÇÃO COM O SISTEMA</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO MYSWL WORKBENCH NA VM</t>
+  </si>
+  <si>
+    <t>VALIDAÇÃO DE DIAGRAMA DE SOLUÇÃO</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>TESTE INTEGRADO ARDUINO + DATABASE</t>
+  </si>
+  <si>
+    <t>SIMULAÇÃO DE DADOS</t>
+  </si>
+  <si>
+    <t>SINCRONIZAÇÃO DE SENSOR COM API</t>
+  </si>
+  <si>
+    <t>TESTE INTEGRADO DO ANALYTICS</t>
+  </si>
+  <si>
+    <t>TESTE INTEGRADO SOLUÇÃO IoT</t>
+  </si>
+  <si>
+    <t>DATA Acqu Ino + BobIA N3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJETO EM CONSTANTE ATUALIZAÇÃO </t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE SITE INSTITUCIONAL EM HTML/CSS/JS</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE SITE ESTÁTICO PARA DASHBOARDS EM HTML/CSS/JS</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE SITE ESTÁTICO INSTITUCIONAL EM HTML/CSS/JS</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DIAGRAMA DE SOLUÇÃO PARA COMPREENSÃO DO FUNCIONAMENTO COMPLETO DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>ATUALIZAÇÃO DO TRELLO COM NOVOS REQUISITOS NO BACKLOG E BACKLOG SPRINT 2</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE SPRINT BACKLOG, SOMENTE COM OS REQUISITOS DA 2° SPRINT</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DO SCRIPT DE BANCO DE DADOS PARA RECEPÇÃO DE DADOS DO SITE E SENSORES</t>
+  </si>
+  <si>
+    <t>SIMULAÇÃO DE DADOS NO SITE ESTÁTICO DE DASHBOARD</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO E CONFIGURAÇÃO DO SGBD WORKBENCH MYSQL NA MÁQUINA VIRTUAL</t>
+  </si>
+  <si>
+    <t>VALIDAÇÃO DE DIAGRAMA DE SOLUÇÃO (EXPLICAÇÃO PENDENTE)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PROJETO EM CONSTANTE ATUALIZAÇÃO EM AMBIENTE DE HOSPEDAGEM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB Demi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sitka Banner Semibold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +339,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +645,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>